--- a/formbookmeeting.xlsx
+++ b/formbookmeeting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safe\Desktop\ILS\BookMeetingRoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB596B51-A176-491C-AF9D-2CCC6B3323A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAB6015-4C54-45DF-9FD0-3C21424144FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5005FF09-F8D1-4F2C-BA84-042DBA944C60}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="dashboard" sheetId="2" r:id="rId2"/>
     <sheet name="FlowChart + Requirement" sheetId="3" r:id="rId3"/>
     <sheet name="ClassDiagram" sheetId="4" r:id="rId4"/>
+    <sheet name="แก้งาน" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Submit</t>
   </si>
@@ -239,6 +240,27 @@
   </si>
   <si>
     <t>topic : String</t>
+  </si>
+  <si>
+    <t>statusbooking:String;</t>
+  </si>
+  <si>
+    <t>แก้</t>
+  </si>
+  <si>
+    <t>role table</t>
+  </si>
+  <si>
+    <t>roleuser</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>roomnametable</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -968,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1221,66 +1243,12 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1291,6 +1259,78 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2181,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FD730F-5FBC-46D0-9A3B-29A8E244DC1C}">
   <dimension ref="D4:Y18"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="J23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
@@ -2373,289 +2413,337 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32455F1C-FB6E-49C8-9298-5D04EC7C07A7}">
-  <dimension ref="C4:P38"/>
+  <dimension ref="C2:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:16" ht="15" thickBot="1"/>
-    <row r="5" spans="3:16" ht="31.2" customHeight="1">
-      <c r="N5" s="92" t="s">
+    <row r="2" spans="3:24">
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24" ht="15" thickBot="1"/>
+    <row r="5" spans="3:24" ht="31.2" customHeight="1">
+      <c r="N5" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="93"/>
-      <c r="P5" s="94"/>
-    </row>
-    <row r="6" spans="3:16" ht="14.4" customHeight="1">
-      <c r="N6" s="95"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="97"/>
-    </row>
-    <row r="7" spans="3:16" ht="15" customHeight="1" thickBot="1">
-      <c r="N7" s="98"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="100"/>
-    </row>
-    <row r="8" spans="3:16">
-      <c r="C8" s="92" t="s">
+      <c r="O5" s="99"/>
+      <c r="P5" s="100"/>
+      <c r="U5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24" ht="14.4" customHeight="1">
+      <c r="N6" s="101"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="103"/>
+    </row>
+    <row r="7" spans="3:24" ht="15" customHeight="1" thickBot="1">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="104"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="106"/>
+    </row>
+    <row r="8" spans="3:24">
+      <c r="C8" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="94"/>
-      <c r="N8" s="111" t="s">
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
+      <c r="N8" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="110"/>
-      <c r="P8" s="112"/>
-    </row>
-    <row r="9" spans="3:16" ht="15" thickBot="1">
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="115"/>
-    </row>
-    <row r="10" spans="3:16" ht="15" thickBot="1">
-      <c r="C10" s="98"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="100"/>
-      <c r="N10" s="101" t="s">
+      <c r="O8" s="93"/>
+      <c r="P8" s="94"/>
+    </row>
+    <row r="9" spans="3:24" ht="15" thickBot="1">
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="97"/>
+    </row>
+    <row r="10" spans="3:24" ht="15" thickBot="1">
+      <c r="C10" s="104"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
+      <c r="N10" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="102"/>
-      <c r="P10" s="103"/>
-    </row>
-    <row r="11" spans="3:16" ht="15" thickBot="1">
-      <c r="C11" s="101" t="s">
+      <c r="O10" s="108"/>
+      <c r="P10" s="109"/>
+    </row>
+    <row r="11" spans="3:24" ht="15" thickBot="1">
+      <c r="C11" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="106"/>
-    </row>
-    <row r="12" spans="3:16" ht="15" thickBot="1">
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="106"/>
-      <c r="N12" s="101" t="s">
+      <c r="D11" s="108"/>
+      <c r="E11" s="109"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="112"/>
+    </row>
+    <row r="12" spans="3:24" ht="15" thickBot="1">
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
+      <c r="N12" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="102"/>
-      <c r="P12" s="103"/>
-    </row>
-    <row r="13" spans="3:16" ht="15" thickBot="1">
-      <c r="C13" s="101" t="s">
+      <c r="O12" s="108"/>
+      <c r="P12" s="109"/>
+      <c r="W12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:24" ht="15" thickBot="1">
+      <c r="C13" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="106"/>
-    </row>
-    <row r="14" spans="3:16" ht="15" thickBot="1">
-      <c r="C14" s="104"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="106"/>
-    </row>
-    <row r="15" spans="3:16" ht="15" thickBot="1">
-      <c r="C15" s="107" t="s">
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="112"/>
+      <c r="U13" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="94"/>
+    </row>
+    <row r="14" spans="3:24" ht="15" thickBot="1">
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="112"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="96"/>
+      <c r="X14" s="97"/>
+    </row>
+    <row r="15" spans="3:24" ht="15" thickBot="1">
+      <c r="C15" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="109"/>
-    </row>
-    <row r="16" spans="3:16" ht="15" thickBot="1">
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106"/>
-      <c r="J16" s="92" t="s">
+      <c r="D15" s="114"/>
+      <c r="E15" s="115"/>
+    </row>
+    <row r="16" spans="3:24" ht="15" thickBot="1">
+      <c r="C16" s="110"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="112"/>
+      <c r="J16" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="93"/>
-      <c r="L16" s="94"/>
-    </row>
-    <row r="17" spans="3:12">
-      <c r="C17" s="101" t="s">
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="103"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="97"/>
-    </row>
-    <row r="18" spans="3:12" ht="15" thickBot="1">
-      <c r="C18" s="104"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="106"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="100"/>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="C19" s="101" t="s">
+      <c r="D17" s="108"/>
+      <c r="E17" s="109"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="103"/>
+    </row>
+    <row r="18" spans="3:19" ht="15" thickBot="1">
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="106"/>
+      <c r="R18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19">
+      <c r="C19" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
-      <c r="J19" s="101" t="s">
+      <c r="D19" s="108"/>
+      <c r="E19" s="109"/>
+      <c r="J19" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="102"/>
-      <c r="L19" s="103"/>
-    </row>
-    <row r="20" spans="3:12" ht="15" thickBot="1">
-      <c r="C20" s="104"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="106"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="106"/>
-    </row>
-    <row r="21" spans="3:12" ht="14.4" customHeight="1">
+      <c r="K19" s="108"/>
+      <c r="L19" s="109"/>
+      <c r="P19" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="94"/>
+    </row>
+    <row r="20" spans="3:19" ht="15" thickBot="1">
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="112"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="121"/>
+    </row>
+    <row r="21" spans="3:19" ht="14.4" customHeight="1" thickBot="1">
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
-      <c r="J21" s="111" t="s">
+      <c r="J21" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="110"/>
-      <c r="L21" s="112"/>
-    </row>
-    <row r="22" spans="3:12" ht="15" customHeight="1" thickBot="1">
+      <c r="K21" s="93"/>
+      <c r="L21" s="94"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="97"/>
+    </row>
+    <row r="22" spans="3:19" ht="15" customHeight="1" thickBot="1">
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="115"/>
-    </row>
-    <row r="23" spans="3:12" ht="15" customHeight="1">
+      <c r="J22" s="95"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="97"/>
+    </row>
+    <row r="23" spans="3:19" ht="15" customHeight="1">
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
-      <c r="J23" s="111" t="s">
+      <c r="J23" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="110"/>
-      <c r="L23" s="112"/>
-    </row>
-    <row r="24" spans="3:12" ht="15" thickBot="1">
+      <c r="K23" s="93"/>
+      <c r="L23" s="94"/>
+    </row>
+    <row r="24" spans="3:19" ht="15" thickBot="1">
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="115"/>
-    </row>
-    <row r="25" spans="3:12">
+      <c r="J24" s="95"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="97"/>
+    </row>
+    <row r="25" spans="3:19">
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
-      <c r="J25" s="111" t="s">
+      <c r="J25" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="110"/>
-      <c r="L25" s="112"/>
-    </row>
-    <row r="26" spans="3:12" ht="15" thickBot="1">
-      <c r="J26" s="113"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="115"/>
-    </row>
-    <row r="27" spans="3:12">
-      <c r="J27" s="111" t="s">
+      <c r="K25" s="93"/>
+      <c r="L25" s="94"/>
+    </row>
+    <row r="26" spans="3:19" ht="15" thickBot="1">
+      <c r="J26" s="95"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="97"/>
+    </row>
+    <row r="27" spans="3:19">
+      <c r="J27" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="K27" s="110"/>
-      <c r="L27" s="112"/>
-    </row>
-    <row r="28" spans="3:12" ht="15" thickBot="1">
-      <c r="J28" s="113"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="115"/>
-    </row>
-    <row r="29" spans="3:12">
-      <c r="J29" s="111" t="s">
+      <c r="K27" s="93"/>
+      <c r="L27" s="94"/>
+    </row>
+    <row r="28" spans="3:19" ht="15" thickBot="1">
+      <c r="J28" s="95"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="97"/>
+    </row>
+    <row r="29" spans="3:19">
+      <c r="J29" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="K29" s="110"/>
-      <c r="L29" s="112"/>
-    </row>
-    <row r="30" spans="3:12" ht="15" thickBot="1">
-      <c r="J30" s="113"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="115"/>
-    </row>
-    <row r="31" spans="3:12">
-      <c r="J31" s="111" t="s">
+      <c r="K29" s="93"/>
+      <c r="L29" s="94"/>
+    </row>
+    <row r="30" spans="3:19" ht="15" thickBot="1">
+      <c r="J30" s="95"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="97"/>
+    </row>
+    <row r="31" spans="3:19">
+      <c r="J31" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="K31" s="110"/>
-      <c r="L31" s="112"/>
-    </row>
-    <row r="32" spans="3:12" ht="15" thickBot="1">
-      <c r="J32" s="113"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="115"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="94"/>
+    </row>
+    <row r="32" spans="3:19" ht="15" thickBot="1">
+      <c r="J32" s="95"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="97"/>
     </row>
     <row r="33" spans="10:12">
-      <c r="J33" s="111" t="s">
+      <c r="J33" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="110"/>
-      <c r="L33" s="112"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="94"/>
     </row>
     <row r="34" spans="10:12" ht="15" thickBot="1">
-      <c r="J34" s="113"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="115"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="97"/>
     </row>
     <row r="35" spans="10:12">
-      <c r="J35" s="111" t="s">
+      <c r="J35" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="K35" s="110"/>
-      <c r="L35" s="112"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="94"/>
     </row>
     <row r="36" spans="10:12" ht="15" thickBot="1">
-      <c r="J36" s="113"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="115"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="97"/>
     </row>
     <row r="37" spans="10:12">
-      <c r="J37" s="111" t="s">
+      <c r="J37" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="110"/>
-      <c r="L37" s="112"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="94"/>
     </row>
     <row r="38" spans="10:12" ht="15" thickBot="1">
-      <c r="J38" s="113"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="115"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="97"/>
+    </row>
+    <row r="39" spans="10:12">
+      <c r="J39" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" s="93"/>
+      <c r="L39" s="94"/>
+    </row>
+    <row r="40" spans="10:12" ht="15" thickBot="1">
+      <c r="J40" s="95"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="J31:L32"/>
-    <mergeCell ref="J33:L34"/>
-    <mergeCell ref="J35:L36"/>
-    <mergeCell ref="J37:L38"/>
-    <mergeCell ref="J21:L22"/>
-    <mergeCell ref="J23:L24"/>
-    <mergeCell ref="J25:L26"/>
-    <mergeCell ref="J27:L28"/>
-    <mergeCell ref="J29:L30"/>
+  <mergeCells count="24">
+    <mergeCell ref="J39:L40"/>
+    <mergeCell ref="P19:S21"/>
+    <mergeCell ref="U13:X14"/>
     <mergeCell ref="J16:L18"/>
     <mergeCell ref="J19:L20"/>
     <mergeCell ref="C13:E14"/>
@@ -2668,8 +2756,97 @@
     <mergeCell ref="N8:P9"/>
     <mergeCell ref="N10:P11"/>
     <mergeCell ref="N12:P13"/>
+    <mergeCell ref="J31:L32"/>
+    <mergeCell ref="J33:L34"/>
+    <mergeCell ref="J35:L36"/>
+    <mergeCell ref="J37:L38"/>
+    <mergeCell ref="J21:L22"/>
+    <mergeCell ref="J23:L24"/>
+    <mergeCell ref="J25:L26"/>
+    <mergeCell ref="J27:L28"/>
+    <mergeCell ref="J29:L30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4004A0E3-1A7B-4AC3-9DB3-040791207331}">
+  <dimension ref="F4:K10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="4" spans="6:11">
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="6:11" ht="15" thickBot="1"/>
+    <row r="6" spans="6:11" ht="15" thickBot="1">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
+    </row>
+    <row r="7" spans="6:11" ht="15" thickBot="1">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="116"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="118"/>
+    </row>
+    <row r="8" spans="6:11" ht="15" thickBot="1">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="116"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="118"/>
+    </row>
+    <row r="9" spans="6:11" ht="15" thickBot="1">
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="118"/>
+    </row>
+    <row r="10" spans="6:11" ht="15" thickBot="1">
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="116"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="118"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G9:K9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>